--- a/inst/extdata/examples/xlsx/corona-vmbo-impact-whisk-group.xlsx
+++ b/inst/extdata/examples/xlsx/corona-vmbo-impact-whisk-group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">tab</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t xml:space="preserve">whisker_legend_show_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve">lock</t>
@@ -552,7 +558,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -570,36 +584,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>5.637</v>
@@ -622,10 +636,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>5.219</v>
@@ -648,10 +662,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>4.759</v>
@@ -674,10 +688,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
         <v>5.668</v>
@@ -700,10 +714,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>8.096</v>
@@ -726,10 +740,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>5.636</v>
@@ -752,10 +766,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
         <v>5.376</v>
@@ -778,10 +792,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
         <v>5.176</v>
@@ -804,10 +818,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
         <v>5.773</v>
@@ -830,10 +844,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
         <v>4.352</v>

--- a/inst/extdata/examples/xlsx/corona-vmbo-impact-whisk-group.xlsx
+++ b/inst/extdata/examples/xlsx/corona-vmbo-impact-whisk-group.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">footnote</t>
   </si>
   <si>
-    <t xml:space="preserve">Please note: whiskers are different.</t>
+    <t xml:space="preserve">Please note: the two whiskers have a different meaning.</t>
   </si>
   <si>
     <t xml:space="preserve">footnote_col</t>
